--- a/medicine/Enfance/Benjamin_Chaud/Benjamin_Chaud.xlsx
+++ b/medicine/Enfance/Benjamin_Chaud/Benjamin_Chaud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Benjamin Chaud, né le 29 janvier 1975 à Briançon (Hautes-Alpes), est un artiste français, illustrateur et auteur de littérature jeunesse.
 </t>
@@ -511,17 +523,19 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Benjamin Chaud a suivi des études de dessin à l'École des Arts Appliqués de Paris, et à l'École supérieure des arts décoratifs de Strasbourg avec Claude Lapointe. Il a vécu plusieurs années à Marseille, puis à Paris, et travaille à Die dans la Drôme, dans un atelier qu'il partage avec un autre auteur illustrateur, Gaëtan Dorémus. En 2018, il précise : « Il était dans ma classe à Strasbourg. La présence de l'autre nous motive, on se soutient et on se donne des conseils. »[1]
-Il débute dans la presse jeunesse, et indique, en 2018 : « J'ai arrêté car il fallait être trop réactif et je n'aimais pas forcément comment c'était imprimé. »[1].  Ses premiers albums sont publiés à la fin des années 1990, lorsqu'il a 24 ans. 
-Il est l'auteur et l'illustrateur d'albums jeunesse tels Une chanson d'ours en 2011, qui met en scène Papa Ours et Petit Ours. Leurs aventures continuent dans Coquillages et petit ours (2012),  Poupoupidours (2014) puis dans  Pompon ours dans les bois (2018). Il est également l'auteur et l'illustrateur depuis 2017 de la série Les petits Marsus, inspiré du célèbre Marsupilami[2] d'André Franquin. Il est édité par les éditions Hélium.
-Il est illustrateur de plusieurs auteurs jeunesse, publiés par divers éditeurs jeunesse, dont la série du petit éléphant Pomelo, sur des textes de Ramona Bádescu, commencée en 2002, et qui comporte une quinzaine de titres. En 2016, sur son travail avec Ramona Bádescu, il explique : « Nous travaillons côte à côte, pas à pas : nous échangeons des idées d'aventures, de dessins, de textes; nous nous égarons, nous rions, nous réfléchissons sans rien dire et petit à petit l'histoire prend forme. »[3] Plusieurs titres de la série Pomelo font partie de la « Bibliothèque jeunesse idéale » du Centre national de la littérature pour la jeunesse (BnF)[4].
-Il a entre autres été inspiré par un livre italien féministe, Rose Bombonne, d’Adela Turin, illustré par Nella Bosnia, paru l'année de sa naissance, en 1975. Il déclare, en juin 2019 : « J’étais complètement fasciné par les pages roses. C’était des expériences complètement psychédéliques pour moi, car je rentrais dans ces pages roses, j’étais obsédé par ce rose et par ces éléphants... que j’ai repris, depuis, dans la série des Pomelo ! »[5].
-En 2019, il explique son travail, et indique : « J’aime beaucoup travailler au café [...]. En général il faut que je dessine mille fois la même chose avant de trouver un dessin qui me plaît, j’ai besoin de beaucoup rater. [...] Je travaille aussi très bien dans le train parce que c’est impossible d’en sortir et je n’ai que ça à faire. »[6]
-Il illustre également depuis 2005 la série La fée Coquillette, écrite par Didier Lévy, qui a été adaptée en série d'animation de neuf épisodes, en 2009[7], ainsi que plusieurs titres de Davide Cali ou de l'auteure suédoise Eva Susso (sv).
-En 2019, il commence la série Taupe et mulot avec l'auteur illustrateur Henri Meunier. Pour  le premier opus Les beaux jours, Michel Abescat écrit dans le journal Télérama : « trois histoires à la fraîcheur craquante comme sorties de l’éternité de l’enfance [...] Et deux héros de belle fantaisie »[8].
-De 2017 à 2020, il est sélectionné quatre années d'affilée pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Benjamin Chaud a suivi des études de dessin à l'École des Arts Appliqués de Paris, et à l'École supérieure des arts décoratifs de Strasbourg avec Claude Lapointe. Il a vécu plusieurs années à Marseille, puis à Paris, et travaille à Die dans la Drôme, dans un atelier qu'il partage avec un autre auteur illustrateur, Gaëtan Dorémus. En 2018, il précise : « Il était dans ma classe à Strasbourg. La présence de l'autre nous motive, on se soutient et on se donne des conseils. »
+Il débute dans la presse jeunesse, et indique, en 2018 : « J'ai arrêté car il fallait être trop réactif et je n'aimais pas forcément comment c'était imprimé. ».  Ses premiers albums sont publiés à la fin des années 1990, lorsqu'il a 24 ans. 
+Il est l'auteur et l'illustrateur d'albums jeunesse tels Une chanson d'ours en 2011, qui met en scène Papa Ours et Petit Ours. Leurs aventures continuent dans Coquillages et petit ours (2012),  Poupoupidours (2014) puis dans  Pompon ours dans les bois (2018). Il est également l'auteur et l'illustrateur depuis 2017 de la série Les petits Marsus, inspiré du célèbre Marsupilami d'André Franquin. Il est édité par les éditions Hélium.
+Il est illustrateur de plusieurs auteurs jeunesse, publiés par divers éditeurs jeunesse, dont la série du petit éléphant Pomelo, sur des textes de Ramona Bádescu, commencée en 2002, et qui comporte une quinzaine de titres. En 2016, sur son travail avec Ramona Bádescu, il explique : « Nous travaillons côte à côte, pas à pas : nous échangeons des idées d'aventures, de dessins, de textes; nous nous égarons, nous rions, nous réfléchissons sans rien dire et petit à petit l'histoire prend forme. » Plusieurs titres de la série Pomelo font partie de la « Bibliothèque jeunesse idéale » du Centre national de la littérature pour la jeunesse (BnF).
+Il a entre autres été inspiré par un livre italien féministe, Rose Bombonne, d’Adela Turin, illustré par Nella Bosnia, paru l'année de sa naissance, en 1975. Il déclare, en juin 2019 : « J’étais complètement fasciné par les pages roses. C’était des expériences complètement psychédéliques pour moi, car je rentrais dans ces pages roses, j’étais obsédé par ce rose et par ces éléphants... que j’ai repris, depuis, dans la série des Pomelo ! ».
+En 2019, il explique son travail, et indique : « J’aime beaucoup travailler au café [...]. En général il faut que je dessine mille fois la même chose avant de trouver un dessin qui me plaît, j’ai besoin de beaucoup rater. [...] Je travaille aussi très bien dans le train parce que c’est impossible d’en sortir et je n’ai que ça à faire. »
+Il illustre également depuis 2005 la série La fée Coquillette, écrite par Didier Lévy, qui a été adaptée en série d'animation de neuf épisodes, en 2009, ainsi que plusieurs titres de Davide Cali ou de l'auteure suédoise Eva Susso (sv).
+En 2019, il commence la série Taupe et mulot avec l'auteur illustrateur Henri Meunier. Pour  le premier opus Les beaux jours, Michel Abescat écrit dans le journal Télérama : « trois histoires à la fraîcheur craquante comme sorties de l’éternité de l’enfance [...] Et deux héros de belle fantaisie ».
+De 2017 à 2020, il est sélectionné quatre années d'affilée pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren.
 </t>
         </is>
       </c>
@@ -552,41 +566,159 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Textes et illustrations
- Le cirque catastrophe, Nathan, 2000
+          <t>Textes et illustrations</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Le cirque catastrophe, Nathan, 2000
  La princesse de la pluie, Nathan, 2001
  Bidules, trucs et zigouigouis, Tourbillon, 2003
  Tralali, la musique des petits bruits, instrumentation Laurent Sauvagnac, Hélium, 2009 - album-CD
 Jojo, le roi des joujoux, Actes Sud junior, 2011
  Adieu Chaussette, Actes Sud, 2014 ; rééd. Cambourakis
- L'art à table[10],[11], Hélium, 2016
+ L'art à table Hélium, 2016
  Le pire anniversaire de ma vie, Hélium, 2016
-Ma folle vie de dessinateur, Hélium, 2021
-Série Papa-Ours / Pompon Ours
- Une chanson d'ours, Hélium, 2011 « Bibliothèque jeunesse idéale »[4] du Centre national de la littérature pour la jeunesse (BnF).
+Ma folle vie de dessinateur, Hélium, 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Benjamin_Chaud</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Benjamin_Chaud</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Textes et illustrations</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Papa-Ours / Pompon Ours</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Une chanson d'ours, Hélium, 2011 « Bibliothèque jeunesse idéale » du Centre national de la littérature pour la jeunesse (BnF).
  Coquillages et petit ours, Hélium, 2012
  Poupoupidours, Hélium, 2014
  Pompon ours dans les bois, Hélium, 2018
- Pompon ours et Pompoms blancs, Hélium, 2020
-Série Les petits Marsus
-Série Les petits Marsus, Little urban, 2017-en cours
+ Pompon ours et Pompoms blancs, Hélium, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Benjamin_Chaud</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Benjamin_Chaud</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Textes et illustrations</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Les petits Marsus</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Série Les petits Marsus, Little urban, 2017-en cours
 L'école des petits Marsus, 2017
 Le nouveau nid des petits Marsus, 2017
 Les petits Marsus et la grande ville, 2018
 Les petits Marsus et la drôle de créature, 2018
-Le très grand Marsu, 2020
-Illustrations
-Textes de Ramona Bádescu, dont la série Pomelo
- 1, 2, 3, perdu !, texte de Ramona Bádescu, A. Michel jeunesse, 2005
-L'amour ?[12], texte de Ramona Bádescu, Naïve, 2005 ; rééd. Cambourakis
+Le très grand Marsu, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Benjamin_Chaud</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Benjamin_Chaud</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Illustrations</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Textes de Ramona Bádescu, dont la série Pomelo</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1, 2, 3, perdu !, texte de Ramona Bádescu, A. Michel jeunesse, 2005
+L'amour ?, texte de Ramona Bádescu, Naïve, 2005 ; rééd. Cambourakis
 Le gros camion qui pue de mon papa, texte de Ramona Bádescu, A. Michel jeunesse, 2006
-Monstres chéris : une famille comme les autres (Album à colorier)[13], texte de Ramona Bádescu, Naïve, 2006
+Monstres chéris : une famille comme les autres (Album à colorier), texte de Ramona Bádescu, Naïve, 2006
 Série Pomelo
  Pomelo est bien sous son pissenlit, texte de Ramona Bádescu, A. Michel jeunesse, 2002 ; et rééd. Magnard
  Pomelo est amoureux, texte de Ramona Bádescu, A. Michel jeunesse, 2003
 Pomelo rêve, texte de Ramona Bádescu, A. Michel jeunesse, 2004
 Pomelo se demande, texte de Ramona Bádescu, A. Michel jeunesse, 2006
-Pomelo s'en va de l'autre côté du jardin[14], texte de Ramona Bádescu, A. Michel jeunesse, 2007
+Pomelo s'en va de l'autre côté du jardin, texte de Ramona Bádescu, A. Michel jeunesse, 2007
 Pomelo voyage, texte de Ramona Bádescu, A. Michel jeunesse, 2009
 Pomelo grandit, texte de Ramona Bádescu, A. Michel jeunesse, 2010
 Pomelo et les contraires, texte de Ramona Bádescu, A. Michel jeunesse, 2011
@@ -597,13 +729,51 @@
 Pomelo se souvient, texte de Ramona Bádescu, A. Michel jeunesse, 2017
 Pomelo découvre, texte de Ramona Bádescu, A. Michel jeunesse, 2018
 Pomelo imagine, texte de Ramona Bádescu, A. Michel jeunesse, 2020
-Plusieurs titres de la série font partie de la « Bibliothèque jeunesse idéale »[4] du Centre national de la littérature pour la jeunesse (BnF).
-Textes de Didier Lévy
-Mon carnet secret, le Père Noël, texte Didier Lévy, ill. Benjamin Chaud, Aurélie Guilleret, Vanessa Hié, et al., Nathan, 2001
+Plusieurs titres de la série font partie de la « Bibliothèque jeunesse idéale » du Centre national de la littérature pour la jeunesse (BnF).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Benjamin_Chaud</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Benjamin_Chaud</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Illustrations</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Textes de Didier Lévy</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Mon carnet secret, le Père Noël, texte Didier Lévy, ill. Benjamin Chaud, Aurélie Guilleret, Vanessa Hié, et al., Nathan, 2001
 Piccolo le pénible, texte Didier Lévy, ill. Benjamin Chaud, A. Michel jeunesse, 2004
 Série La fée Coquillette, Albin Michel Jeunesse
 La fée Coquillette et l'ours mal léché, 2005
-La fée Coquillette fait la maîtresse, 2005 Prix des incorruptibles 2007[15]
+La fée Coquillette fait la maîtresse, 2005 Prix des incorruptibles 2007
 La fée Coquillette aime les histoires d'amour, 2006
 La fée Coquillette et le koala à gros nez, 2006
 Carnet magique de la fée Coquillette, 2007
@@ -614,36 +784,226 @@
 La fée Coquillette et le croquo baigneur, 2009
 La fée Coquillette présente Télé-Coquillette, 2009
 La fée Coquillette et le concours de fées, 2010
-La fée Coquillette mène l'enquête, 2011
-Textes de Sylvie de Mathuisieulx
- La maîtresse est foldingue, texte de Sylvie de Mathuisieulx, ill. de Benjamin Chaud, Éd. Milan, 2000
+La fée Coquillette mène l'enquête, 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Benjamin_Chaud</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Benjamin_Chaud</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Illustrations</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Textes de Sylvie de Mathuisieulx</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> La maîtresse est foldingue, texte de Sylvie de Mathuisieulx, ill. de Benjamin Chaud, Éd. Milan, 2000
  Le secret de la maîtresse, ill. de Benjamin Chaud, Éd. Milan, 2005
  La maîtresse a peur du noir, ill. de Benjamin Chaud, Éd. Milan, 2007
- Les vacances de la maîtresse, ill. de Benjamin Chaud, Éd. Milan, 2013
-Textes de Davide Cali
- Je n'ai pas fait mes devoirs parce que, texte Davide Cali, ill. Benjamin Chaud, Hélium, 2014
+ Les vacances de la maîtresse, ill. de Benjamin Chaud, Éd. Milan, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Benjamin_Chaud</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Benjamin_Chaud</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Illustrations</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Textes de Davide Cali</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Je n'ai pas fait mes devoirs parce que, texte Davide Cali, ill. Benjamin Chaud, Hélium, 2014
  Je suis en retard à l'école parce que, texte Davide Cali, ill. Benjamin Chaud, Hélium, 2015
  La vérité sur mes incroyables vacances, texte Davide Cali, ill. Benjamin Chaud, Hélium, 2016
  J'ai perdu ma classe au musée parce que, texte Davide Cali, ill. Benjamin Chaud, Hélium, 2017
  La vérité sur ma folle école, texte Davide Cali, ill. Benjamin Chaud, Hélium, 2019
-Les adultes ne font jamais ça !, texte Davide Cali, ill. Benjamin Chaud, Hélium, 2020
-Textes de Eva Susso
- L'abominable homme des neiges, texte Eva Susso (sv), ill. Benjamin Chaud, traduit du suédois par Jean-Baptiste Coursaud, A. Michel jeunesse, 2013
+Les adultes ne font jamais ça !, texte Davide Cali, ill. Benjamin Chaud, Hélium, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Benjamin_Chaud</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Benjamin_Chaud</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Illustrations</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Textes de Eva Susso</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L'abominable homme des neiges, texte Eva Susso (sv), ill. Benjamin Chaud, traduit du suédois par Jean-Baptiste Coursaud, A. Michel jeunesse, 2013
  Le génie de la bouteille, texte Eva Susso, ill. Benjamin Chaud, traduit du suédois par Jean-Baptiste Coursaud, A. Michel jeunesse, 2016
  Binta danse, texte Eva Susso, ill. Benjamin Chaud, traduit du suédois par Jean-Baptiste Coursaud, Cambourakis, 2018
  Milo joue du tambour, texte Eva Susso, ill. Benjamin Chaud, traduit du suédois par Jean-Baptiste Coursaud, Cambourakis, 2018
- Simon se promène, texte Eva Susso, ill. Benjamin Chaud, traduit du suédois par Jean-Baptiste Coursaud, Cambourakis, 2018  « Bibliothèque jeunesse idéale »[4] du Centre national de la littérature pour la jeunesse (BnF).
-Avec Henri Meunier
-Série Taupe et mulot, Henri Meunier et Benjamin Chaud, Hélium
-Les beaux jours[8], 2019
+ Simon se promène, texte Eva Susso, ill. Benjamin Chaud, traduit du suédois par Jean-Baptiste Coursaud, Cambourakis, 2018  « Bibliothèque jeunesse idéale » du Centre national de la littérature pour la jeunesse (BnF).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Benjamin_Chaud</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Benjamin_Chaud</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Illustrations</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Avec Henri Meunier</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Série Taupe et mulot, Henri Meunier et Benjamin Chaud, Hélium
+Les beaux jours, 2019
 La tarte aux lombrics, 2019
 Notre part de ciel, 2020
 Bonnet blanc et blanc bonnet, 2021
 Apprendre à voler, 2022
 Faire famille, 2023
-Atteindre les sommets, 2023
-Autres
-Mon pépé il entend rien, et pourtant il a des oreilles immenses !, texte Claude Habrekorn-Indjeyan, ill. Serge Bloch et Benjamin Chaud, Nathan, 1999
+Atteindre les sommets, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Benjamin_Chaud</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Benjamin_Chaud</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Illustrations</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Mon pépé il entend rien, et pourtant il a des oreilles immenses !, texte Claude Habrekorn-Indjeyan, ill. Serge Bloch et Benjamin Chaud, Nathan, 1999
  Tout pour réussir Halloween, texte Mymi Doinet, ill. par Benjamin Chaud, Nathan, 2000
 Laissez passer les biquettes !, texte Michel Piquemal, ill. de Benjamin Chaud, Nathan, 2000
 Mes frères et sœurs, c'est l'horreur !, texte Béastuce Rouer, ill. de Benjamin Chaud, Nathan, 2000
@@ -663,8 +1023,8 @@
  Rollinettes, texte François Rollin, illustrations de Benjamin Chaud, Éd. l'Édune, 2011
 Se laver, quelle aventure !, texte Manuela Monari, ill. Benjamin Chaud ; traduit de l'italien par Chiara Gennaretti et Chopan, Cambourakis, 2012
  Le petit Roro : mon tout tout premier dico, texte Corinne Dreyfuss, ill. Benjamin Chaud, Actes Sud junior, 2012
- Georgia : tous mes rêves chantent, texte de Timothée de Fombelle, ill. Benjamin Chaud ; raconté par Cécile de France, production de l'ensemble Contraste, Gallimard jeunesse musique, 2016 - album-CD Pépite du Salon du livre et de la presse jeunesse de Montreuil 2016[16].
-Tous super-héros : La coupe de tout le monde, texte Lilian Thuram et Jean-Christophe Camus, ill. Benjamin Chaud, couleurs Nadeige Imbert Cousinié, Delcourt, 2017 Prix Bull'gomme 53 2017[17].
+ Georgia : tous mes rêves chantent, texte de Timothée de Fombelle, ill. Benjamin Chaud ; raconté par Cécile de France, production de l'ensemble Contraste, Gallimard jeunesse musique, 2016 - album-CD Pépite du Salon du livre et de la presse jeunesse de Montreuil 2016.
+Tous super-héros : La coupe de tout le monde, texte Lilian Thuram et Jean-Christophe Camus, ill. Benjamin Chaud, couleurs Nadeige Imbert Cousinié, Delcourt, 2017 Prix Bull'gomme 53 2017.
 Le Livre de la jungle, d'après l’œuvre de Rudyard Kipling, illustré par Benjamin Chaud ; musique de Félix Le Bars, Gallimard jeunesse musique, 2019
 Héliotrope, scénario de Joann Sfarr, illustrations de Benjamin Chaud, Éd. Dupuis, 2022
 Héliotrope tome 2 : le palais des voleurs,  scénario de Joann Sfarr, illustrations de Benjamin Chaud, Éd. Dupuis, 2022
@@ -672,140 +1032,148 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Benjamin_Chaud</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Benjamin_Chaud</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Benjamin_Chaud</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Benjamin_Chaud</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Décoration</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de l'ordre des Arts et des Lettres 2013[18]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Benjamin_Chaud</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Benjamin_Chaud</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de l'ordre des Arts et des Lettres 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Benjamin_Chaud</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Benjamin_Chaud</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2007 : Prix des incorruptibles pour La fée coquillette fait la maîtresse[15], texte de Didier Lévy, illustré par Benjamin Chaud
-2016 : Pépite du Salon du livre et de la presse jeunesse de Montreuil pour Georgia : tous mes rêves chantent[16] de Timothée de Fombelle (texte), Benjamin Chaud (illustrations), Cécile de France (voix), Arnaud Thorette (direction artistique), Johan Farjot (direction musicale), Alain Chamfort, Émily Loizeau, Albin de la Simone et al. (musique), (Gallimard Jeunesse Musique, Contraste productions)
-2016 : Coup de cœur Jeune Public automne 2016 de l'Académie Charles-Cros pour Georgia avec Timothée de Fombelle, Cécile de France et l'ensemble Contraste[19]
-2017 : Prix Bull'gomme 53 pour Tous super-héros : La coupe de tout le monde[17], texte Lilian Thuram et Jean-Christophe Camus, ill. Benjamin Chaud.
- Sélections 2017, 2018, 2019 et 2020 pour le Prix commémoratif Astrid-Lindgren[9]
- 2022 : Prix Bernard Versele[20] pour Les adultes ne font jamais ça, qu'il a illustré, sur un texte de Davide Cali
-Plusieurs de ses ouvrages font partie de la « Bibliothèque jeunesse idéale » du Centre national de la littérature pour la jeunesse (BnF)[4] :
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2007 : Prix des incorruptibles pour La fée coquillette fait la maîtresse, texte de Didier Lévy, illustré par Benjamin Chaud
+2016 : Pépite du Salon du livre et de la presse jeunesse de Montreuil pour Georgia : tous mes rêves chantent de Timothée de Fombelle (texte), Benjamin Chaud (illustrations), Cécile de France (voix), Arnaud Thorette (direction artistique), Johan Farjot (direction musicale), Alain Chamfort, Émily Loizeau, Albin de la Simone et al. (musique), (Gallimard Jeunesse Musique, Contraste productions)
+2016 : Coup de cœur Jeune Public automne 2016 de l'Académie Charles-Cros pour Georgia avec Timothée de Fombelle, Cécile de France et l'ensemble Contraste
+2017 : Prix Bull'gomme 53 pour Tous super-héros : La coupe de tout le monde, texte Lilian Thuram et Jean-Christophe Camus, ill. Benjamin Chaud.
+ Sélections 2017, 2018, 2019 et 2020 pour le Prix commémoratif Astrid-Lindgren
+ 2022 : Prix Bernard Versele pour Les adultes ne font jamais ça, qu'il a illustré, sur un texte de Davide Cali
+Plusieurs de ses ouvrages font partie de la « Bibliothèque jeunesse idéale » du Centre national de la littérature pour la jeunesse (BnF) :
 des tomes de la série Pomelo, écrite par Ramona Bádescu, qu'il a illustrée
 Une chanson d'ours (2011), qu'il a écrit et illustré
  Simon se promène, sur un texte d'Eva Susso (2018), qu'il a illustré.</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Benjamin_Chaud</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Benjamin_Chaud</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Benjamin_Chaud</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Benjamin_Chaud</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Quelques expositions récentes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>2016 :
-« L'art à table »[10],[11], Musée de Poche, Paris.
+« L'art à table » Musée de Poche, Paris.
 « Le pire anniversaire de ma vie », Galerie Les Originaux, Paris.
-2017 : « Face à face », « Illustrer l'enfance »[21], exposition collective de 7 illustrateurs européens : Delphine Bournay, Beatrice Alemagna, Annabelle Buxton, Audrey Calleja, Mara Cerri (Italie), Benjamin Chaud, Carmen Segovia (Espagne), Salon du livre et de la presse jeunesse de Montreuil.
-2018 : Exposition collective d'illustrateurs jeunesse, Festival international Étonnants Voyageurs[22], Saint-Malo, Ille-et-Vilaine.
+2017 : « Face à face », « Illustrer l'enfance », exposition collective de 7 illustrateurs européens : Delphine Bournay, Beatrice Alemagna, Annabelle Buxton, Audrey Calleja, Mara Cerri (Italie), Benjamin Chaud, Carmen Segovia (Espagne), Salon du livre et de la presse jeunesse de Montreuil.
+2018 : Exposition collective d'illustrateurs jeunesse, Festival international Étonnants Voyageurs, Saint-Malo, Ille-et-Vilaine.
 2019 :
-« Parole aux animaux »[23], exposition collective, divers illustrateurs, dont Antoon Krings, Nathalie Novi, François Place, François Roca, Olivier Tallec et Shaun Tan, galerie Gallimard, Paris.
-« A la recherche de Petit ours », Médiathèque George Sand[24], Enghien-les-Bains, Val-d'Oise.
-« Pomelo, Georgia &amp; Cie », Galerie Robillard, Paris[25],[5].</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Benjamin_Chaud</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Benjamin_Chaud</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+« Parole aux animaux », exposition collective, divers illustrateurs, dont Antoon Krings, Nathalie Novi, François Place, François Roca, Olivier Tallec et Shaun Tan, galerie Gallimard, Paris.
+« A la recherche de Petit ours », Médiathèque George Sand, Enghien-les-Bains, Val-d'Oise.
+« Pomelo, Georgia &amp; Cie », Galerie Robillard, Paris,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Benjamin_Chaud</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Benjamin_Chaud</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Adaptation de son œuvre en série animée</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>La série jeunesse d'une douzaine de titres La fée Coquillette, créée en 2005, écrite par Didier Lévy, qu'il a illustrée, a été adaptée en série d'animation de neuf épisodes, en 2009[7] :
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>La série jeunesse d'une douzaine de titres La fée Coquillette, créée en 2005, écrite par Didier Lévy, qu'il a illustrée, a été adaptée en série d'animation de neuf épisodes, en 2009 :
 La fée Coquillette, les Armateurs, Sony pictures home entertainment : Maybe movies, 2009.</t>
         </is>
       </c>
